--- a/Horary Model.xlsx
+++ b/Horary Model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gayos\Documents\GitHub\PLB-Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gayos\Documents\GitHub\Control-Horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BBCB7D-40F8-48D9-8F00-72C7A5E26F78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C68706-1652-43D9-A383-5F3DBCC57B4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -153,7 +153,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +214,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -377,7 +383,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -420,9 +426,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -430,6 +433,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -454,6 +460,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -544,64 +553,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>132080</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61822B54-AA2B-4B0F-AA79-79DF20370694}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="794385" y="101600"/>
-          <a:ext cx="1410335" cy="447040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -925,8 +876,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -940,13 +891,13 @@
     <col min="7" max="7" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.88671875" style="1"/>
-    <col min="10" max="10" width="4.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.21875" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J2" s="23"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
@@ -955,7 +906,7 @@
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J3" s="24"/>
+      <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
       </c>
@@ -964,7 +915,7 @@
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J4" s="22"/>
+      <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1071,7 +1022,7 @@
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="20">
+      <c r="B16" s="33">
         <v>1</v>
       </c>
       <c r="C16" s="12"/>
@@ -1082,7 +1033,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="20">
+      <c r="B17" s="33">
         <v>2</v>
       </c>
       <c r="C17" s="12"/>
@@ -1093,7 +1044,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="20">
+      <c r="B18" s="33">
         <v>3</v>
       </c>
       <c r="C18" s="12"/>
@@ -1104,7 +1055,7 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="20">
+      <c r="B19" s="33">
         <v>4</v>
       </c>
       <c r="C19" s="12"/>
@@ -1115,7 +1066,7 @@
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="20">
+      <c r="B20" s="33">
         <v>5</v>
       </c>
       <c r="C20" s="12"/>
@@ -1126,7 +1077,7 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="20">
+      <c r="B21" s="33">
         <v>6</v>
       </c>
       <c r="C21" s="12"/>
@@ -1137,7 +1088,7 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="20">
+      <c r="B22" s="33">
         <v>7</v>
       </c>
       <c r="C22" s="12"/>
@@ -1148,7 +1099,7 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="20">
+      <c r="B23" s="33">
         <v>8</v>
       </c>
       <c r="C23" s="12"/>
@@ -1159,7 +1110,7 @@
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="20">
+      <c r="B24" s="33">
         <v>9</v>
       </c>
       <c r="C24" s="12"/>
@@ -1170,7 +1121,7 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="20">
+      <c r="B25" s="33">
         <v>10</v>
       </c>
       <c r="C25" s="12"/>
@@ -1181,7 +1132,7 @@
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="20">
+      <c r="B26" s="33">
         <v>11</v>
       </c>
       <c r="C26" s="12"/>
@@ -1192,7 +1143,7 @@
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="20">
+      <c r="B27" s="33">
         <v>12</v>
       </c>
       <c r="C27" s="12"/>
@@ -1203,7 +1154,7 @@
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="20">
+      <c r="B28" s="33">
         <v>13</v>
       </c>
       <c r="C28" s="12"/>
@@ -1214,7 +1165,7 @@
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="20">
+      <c r="B29" s="33">
         <v>14</v>
       </c>
       <c r="C29" s="12"/>
@@ -1225,7 +1176,7 @@
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="20">
+      <c r="B30" s="33">
         <v>15</v>
       </c>
       <c r="C30" s="12"/>
@@ -1236,7 +1187,7 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="20">
+      <c r="B31" s="33">
         <v>16</v>
       </c>
       <c r="C31" s="12"/>
@@ -1247,7 +1198,7 @@
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="20">
+      <c r="B32" s="33">
         <v>17</v>
       </c>
       <c r="C32" s="12"/>
@@ -1258,7 +1209,7 @@
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="20">
+      <c r="B33" s="33">
         <v>18</v>
       </c>
       <c r="C33" s="12"/>
@@ -1269,7 +1220,7 @@
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="20">
+      <c r="B34" s="33">
         <v>19</v>
       </c>
       <c r="C34" s="12"/>
@@ -1280,7 +1231,7 @@
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="20">
+      <c r="B35" s="33">
         <v>20</v>
       </c>
       <c r="C35" s="12"/>
@@ -1291,7 +1242,7 @@
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="20">
+      <c r="B36" s="33">
         <v>21</v>
       </c>
       <c r="C36" s="12"/>
@@ -1302,7 +1253,7 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="20">
+      <c r="B37" s="33">
         <v>22</v>
       </c>
       <c r="C37" s="12"/>
@@ -1313,7 +1264,7 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="20">
+      <c r="B38" s="33">
         <v>23</v>
       </c>
       <c r="C38" s="12"/>
@@ -1324,7 +1275,7 @@
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="20">
+      <c r="B39" s="33">
         <v>24</v>
       </c>
       <c r="C39" s="12"/>
@@ -1335,7 +1286,7 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="20">
+      <c r="B40" s="33">
         <v>25</v>
       </c>
       <c r="C40" s="12"/>
@@ -1346,7 +1297,7 @@
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="20">
+      <c r="B41" s="33">
         <v>26</v>
       </c>
       <c r="C41" s="12"/>
@@ -1357,7 +1308,7 @@
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="20">
+      <c r="B42" s="33">
         <v>27</v>
       </c>
       <c r="C42" s="12"/>
@@ -1368,7 +1319,7 @@
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="20">
+      <c r="B43" s="33">
         <v>28</v>
       </c>
       <c r="C43" s="12"/>
@@ -1379,7 +1330,7 @@
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="20">
+      <c r="B44" s="33">
         <v>29</v>
       </c>
       <c r="C44" s="12"/>
@@ -1390,7 +1341,7 @@
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="20">
+      <c r="B45" s="33">
         <v>30</v>
       </c>
       <c r="C45" s="12"/>
@@ -1401,7 +1352,7 @@
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="20">
+      <c r="B46" s="33">
         <v>31</v>
       </c>
       <c r="C46" s="12"/>
@@ -1505,6 +1456,7 @@
     <mergeCell ref="F11:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1512,7 +1464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6486AC-E003-4CAB-A4AB-BA9BC6FF6CEA}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B16" sqref="B16:G46"/>
     </sheetView>
   </sheetViews>
@@ -1533,19 +1485,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J2" s="23"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J3" s="24"/>
+      <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J4" s="22"/>
+      <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
@@ -2084,7 +2036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8740F8E4-54E9-4FB6-8D9A-49E25F55FD76}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
@@ -2105,19 +2057,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J2" s="23"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J3" s="24"/>
+      <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J4" s="22"/>
+      <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
@@ -2645,8 +2597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3618790-2BCB-4B60-BBFB-C820F665B2BD}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58:H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2666,19 +2618,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J2" s="23"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J3" s="24"/>
+      <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J4" s="22"/>
+      <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
@@ -3215,10 +3167,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E731D6A-1AF2-42E7-AE13-0257C1BC47F0}">
-  <dimension ref="B2:P61"/>
+  <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:G43"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3232,13 +3184,13 @@
     <col min="7" max="7" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.88671875" style="1"/>
-    <col min="10" max="10" width="4.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.21875" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J2" s="23"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3247,7 +3199,7 @@
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J3" s="24"/>
+      <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3256,7 +3208,7 @@
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J4" s="22"/>
+      <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
@@ -3363,7 +3315,7 @@
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="21">
+      <c r="B16" s="20">
         <v>1</v>
       </c>
       <c r="C16" s="12"/>
@@ -3374,7 +3326,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="21">
+      <c r="B17" s="20">
         <v>2</v>
       </c>
       <c r="C17" s="12"/>
@@ -3385,7 +3337,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="21">
+      <c r="B18" s="20">
         <v>3</v>
       </c>
       <c r="C18" s="12"/>
@@ -3396,7 +3348,7 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="21">
+      <c r="B19" s="20">
         <v>4</v>
       </c>
       <c r="C19" s="12"/>
@@ -3407,7 +3359,7 @@
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="21">
+      <c r="B20" s="20">
         <v>5</v>
       </c>
       <c r="C20" s="12"/>
@@ -3418,7 +3370,7 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="21">
+      <c r="B21" s="20">
         <v>6</v>
       </c>
       <c r="C21" s="12"/>
@@ -3429,7 +3381,7 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="21">
+      <c r="B22" s="20">
         <v>7</v>
       </c>
       <c r="C22" s="12"/>
@@ -3440,7 +3392,7 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="21">
+      <c r="B23" s="20">
         <v>8</v>
       </c>
       <c r="C23" s="12"/>
@@ -3451,7 +3403,7 @@
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="21">
+      <c r="B24" s="20">
         <v>9</v>
       </c>
       <c r="C24" s="12"/>
@@ -3462,7 +3414,7 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="21">
+      <c r="B25" s="20">
         <v>10</v>
       </c>
       <c r="C25" s="12"/>
@@ -3473,7 +3425,7 @@
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="21">
+      <c r="B26" s="20">
         <v>11</v>
       </c>
       <c r="C26" s="12"/>
@@ -3484,7 +3436,7 @@
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="21">
+      <c r="B27" s="20">
         <v>12</v>
       </c>
       <c r="C27" s="12"/>
@@ -3495,7 +3447,7 @@
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="21">
+      <c r="B28" s="20">
         <v>13</v>
       </c>
       <c r="C28" s="12"/>
@@ -3506,7 +3458,7 @@
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="21">
+      <c r="B29" s="20">
         <v>14</v>
       </c>
       <c r="C29" s="12"/>
@@ -3517,7 +3469,7 @@
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="21">
+      <c r="B30" s="20">
         <v>15</v>
       </c>
       <c r="C30" s="12"/>
@@ -3528,7 +3480,7 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="21">
+      <c r="B31" s="20">
         <v>16</v>
       </c>
       <c r="C31" s="12"/>
@@ -3539,7 +3491,7 @@
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="21">
+      <c r="B32" s="20">
         <v>17</v>
       </c>
       <c r="C32" s="12"/>
@@ -3550,7 +3502,7 @@
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="21">
+      <c r="B33" s="20">
         <v>18</v>
       </c>
       <c r="C33" s="12"/>
@@ -3561,7 +3513,7 @@
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="21">
+      <c r="B34" s="20">
         <v>19</v>
       </c>
       <c r="C34" s="12"/>
@@ -3572,7 +3524,7 @@
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="21">
+      <c r="B35" s="20">
         <v>20</v>
       </c>
       <c r="C35" s="12"/>
@@ -3583,7 +3535,7 @@
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="21">
+      <c r="B36" s="20">
         <v>21</v>
       </c>
       <c r="C36" s="12"/>
@@ -3594,7 +3546,7 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="21">
+      <c r="B37" s="20">
         <v>22</v>
       </c>
       <c r="C37" s="12"/>
@@ -3605,7 +3557,7 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="21">
+      <c r="B38" s="20">
         <v>23</v>
       </c>
       <c r="C38" s="12"/>
@@ -3616,7 +3568,7 @@
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="21">
+      <c r="B39" s="20">
         <v>24</v>
       </c>
       <c r="C39" s="12"/>
@@ -3627,7 +3579,7 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="21">
+      <c r="B40" s="20">
         <v>25</v>
       </c>
       <c r="C40" s="12"/>
@@ -3638,7 +3590,7 @@
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="21">
+      <c r="B41" s="20">
         <v>26</v>
       </c>
       <c r="C41" s="12"/>
@@ -3649,7 +3601,7 @@
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="21">
+      <c r="B42" s="20">
         <v>27</v>
       </c>
       <c r="C42" s="12"/>
@@ -3660,7 +3612,7 @@
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="21">
+      <c r="B43" s="20">
         <v>28</v>
       </c>
       <c r="C43" s="12"/>
@@ -3717,18 +3669,18 @@
       <c r="G53" s="19"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="25" t="s">
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="25"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
       <c r="E58" s="25"/>
@@ -3763,18 +3715,26 @@
       <c r="G61" s="25"/>
       <c r="H61" s="25"/>
     </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B57:H61"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3782,8 +3742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECCE4023-35E9-4427-A2E3-62E45B00EDF5}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" activeCellId="1" sqref="C8:C11 F8:H11"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58:H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3797,13 +3757,13 @@
     <col min="7" max="7" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.88671875" style="1"/>
-    <col min="10" max="10" width="4.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.21875" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J2" s="23"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3812,7 +3772,7 @@
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J3" s="24"/>
+      <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3821,7 +3781,7 @@
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J4" s="22"/>
+      <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
@@ -4374,8 +4334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C68094-695E-4DEE-9781-A162D3F8C272}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4389,13 +4349,13 @@
     <col min="7" max="7" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.88671875" style="1"/>
-    <col min="10" max="10" width="4.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.21875" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J2" s="23"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
@@ -4404,7 +4364,7 @@
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J3" s="24"/>
+      <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
       </c>
@@ -4413,7 +4373,7 @@
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J4" s="22"/>
+      <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
@@ -4955,8 +4915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67EED29-FE3C-458D-A7F1-9E7329998434}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" activeCellId="3" sqref="G49 G54 F8:H11 C8:C11"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4970,13 +4930,13 @@
     <col min="7" max="7" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.88671875" style="1"/>
-    <col min="10" max="10" width="4.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.21875" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J2" s="23"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
@@ -4985,7 +4945,7 @@
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J3" s="24"/>
+      <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
       </c>
@@ -4994,7 +4954,7 @@
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J4" s="22"/>
+      <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
@@ -5542,8 +5502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D6AC2CD-893F-41C5-9C9B-6E61F154DBF8}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G54" activeCellId="1" sqref="G49 G54"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5557,25 +5517,25 @@
     <col min="7" max="7" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.88671875" style="1"/>
-    <col min="10" max="10" width="3.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.21875" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J2" s="23"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J3" s="24"/>
+      <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J4" s="22"/>
+      <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
@@ -6109,8 +6069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31BE021-B7E6-4F89-B7B6-87A6EC5D824F}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F8" activeCellId="2" sqref="G54 C8:C11 F8:H11"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6130,19 +6090,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J2" s="23"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J3" s="24"/>
+      <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J4" s="22"/>
+      <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
@@ -6681,7 +6641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF978304-926E-4C89-893F-97ABC2FEF105}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -6702,19 +6662,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J2" s="23"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J3" s="24"/>
+      <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J4" s="22"/>
+      <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
@@ -7253,7 +7213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A203EC-78E1-474A-A815-50A7240493FD}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
@@ -7274,19 +7234,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J2" s="23"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J3" s="24"/>
+      <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J4" s="22"/>
+      <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
       </c>

--- a/Horary Model.xlsx
+++ b/Horary Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gayos\Documents\GitHub\Control-Horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C68706-1652-43D9-A383-5F3DBCC57B4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3700AA34-8141-426B-ACA2-1A0F528D2C35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -437,6 +437,9 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -460,9 +463,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -876,8 +876,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B46"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -931,24 +931,24 @@
       <c r="N5" s="4"/>
     </row>
     <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
-      <c r="J6" s="29" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
+      <c r="J6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="31"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
@@ -958,9 +958,9 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
@@ -970,9 +970,9 @@
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
@@ -982,9 +982,9 @@
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
@@ -994,9 +994,9 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
@@ -1022,7 +1022,7 @@
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="33">
+      <c r="B16" s="25">
         <v>1</v>
       </c>
       <c r="C16" s="12"/>
@@ -1033,7 +1033,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="33">
+      <c r="B17" s="25">
         <v>2</v>
       </c>
       <c r="C17" s="12"/>
@@ -1044,7 +1044,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="33">
+      <c r="B18" s="25">
         <v>3</v>
       </c>
       <c r="C18" s="12"/>
@@ -1055,7 +1055,7 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="33">
+      <c r="B19" s="25">
         <v>4</v>
       </c>
       <c r="C19" s="12"/>
@@ -1066,7 +1066,7 @@
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="33">
+      <c r="B20" s="25">
         <v>5</v>
       </c>
       <c r="C20" s="12"/>
@@ -1077,7 +1077,7 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="33">
+      <c r="B21" s="25">
         <v>6</v>
       </c>
       <c r="C21" s="12"/>
@@ -1088,7 +1088,7 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="33">
+      <c r="B22" s="25">
         <v>7</v>
       </c>
       <c r="C22" s="12"/>
@@ -1099,7 +1099,7 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="33">
+      <c r="B23" s="25">
         <v>8</v>
       </c>
       <c r="C23" s="12"/>
@@ -1110,7 +1110,7 @@
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="33">
+      <c r="B24" s="25">
         <v>9</v>
       </c>
       <c r="C24" s="12"/>
@@ -1121,7 +1121,7 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="33">
+      <c r="B25" s="25">
         <v>10</v>
       </c>
       <c r="C25" s="12"/>
@@ -1132,7 +1132,7 @@
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="33">
+      <c r="B26" s="25">
         <v>11</v>
       </c>
       <c r="C26" s="12"/>
@@ -1143,7 +1143,7 @@
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="33">
+      <c r="B27" s="25">
         <v>12</v>
       </c>
       <c r="C27" s="12"/>
@@ -1154,7 +1154,7 @@
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="33">
+      <c r="B28" s="25">
         <v>13</v>
       </c>
       <c r="C28" s="12"/>
@@ -1165,7 +1165,7 @@
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="33">
+      <c r="B29" s="25">
         <v>14</v>
       </c>
       <c r="C29" s="12"/>
@@ -1176,7 +1176,7 @@
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="33">
+      <c r="B30" s="25">
         <v>15</v>
       </c>
       <c r="C30" s="12"/>
@@ -1187,7 +1187,7 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="33">
+      <c r="B31" s="25">
         <v>16</v>
       </c>
       <c r="C31" s="12"/>
@@ -1198,7 +1198,7 @@
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="33">
+      <c r="B32" s="25">
         <v>17</v>
       </c>
       <c r="C32" s="12"/>
@@ -1209,7 +1209,7 @@
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="33">
+      <c r="B33" s="25">
         <v>18</v>
       </c>
       <c r="C33" s="12"/>
@@ -1220,7 +1220,7 @@
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="33">
+      <c r="B34" s="25">
         <v>19</v>
       </c>
       <c r="C34" s="12"/>
@@ -1231,7 +1231,7 @@
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="33">
+      <c r="B35" s="25">
         <v>20</v>
       </c>
       <c r="C35" s="12"/>
@@ -1242,7 +1242,7 @@
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="33">
+      <c r="B36" s="25">
         <v>21</v>
       </c>
       <c r="C36" s="12"/>
@@ -1253,7 +1253,7 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="33">
+      <c r="B37" s="25">
         <v>22</v>
       </c>
       <c r="C37" s="12"/>
@@ -1264,7 +1264,7 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="33">
+      <c r="B38" s="25">
         <v>23</v>
       </c>
       <c r="C38" s="12"/>
@@ -1275,7 +1275,7 @@
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="33">
+      <c r="B39" s="25">
         <v>24</v>
       </c>
       <c r="C39" s="12"/>
@@ -1286,7 +1286,7 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="33">
+      <c r="B40" s="25">
         <v>25</v>
       </c>
       <c r="C40" s="12"/>
@@ -1297,7 +1297,7 @@
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="33">
+      <c r="B41" s="25">
         <v>26</v>
       </c>
       <c r="C41" s="12"/>
@@ -1308,7 +1308,7 @@
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="33">
+      <c r="B42" s="25">
         <v>27</v>
       </c>
       <c r="C42" s="12"/>
@@ -1319,7 +1319,7 @@
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="33">
+      <c r="B43" s="25">
         <v>28</v>
       </c>
       <c r="C43" s="12"/>
@@ -1330,7 +1330,7 @@
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="33">
+      <c r="B44" s="25">
         <v>29</v>
       </c>
       <c r="C44" s="12"/>
@@ -1341,7 +1341,7 @@
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="33">
+      <c r="B45" s="25">
         <v>30</v>
       </c>
       <c r="C45" s="12"/>
@@ -1352,7 +1352,7 @@
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="33">
+      <c r="B46" s="25">
         <v>31</v>
       </c>
       <c r="C46" s="12"/>
@@ -1399,51 +1399,51 @@
       <c r="G54" s="19"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1504,24 +1504,24 @@
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
-      <c r="J6" s="29" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
+      <c r="J6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="31"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
@@ -1531,9 +1531,9 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
@@ -1543,9 +1543,9 @@
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
@@ -1555,9 +1555,9 @@
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
@@ -1567,9 +1567,9 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
@@ -1972,51 +1972,51 @@
       <c r="G54" s="19"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2036,7 +2036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8740F8E4-54E9-4FB6-8D9A-49E25F55FD76}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
@@ -2076,24 +2076,24 @@
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
-      <c r="J6" s="29" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
+      <c r="J6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="31"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
@@ -2103,9 +2103,9 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
@@ -2115,9 +2115,9 @@
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
@@ -2127,9 +2127,9 @@
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
@@ -2139,9 +2139,9 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
@@ -2533,51 +2533,51 @@
       <c r="G54" s="19"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2637,24 +2637,24 @@
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
-      <c r="J6" s="29" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
+      <c r="J6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="31"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
@@ -2664,9 +2664,9 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
@@ -2676,9 +2676,9 @@
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
@@ -2688,9 +2688,9 @@
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
@@ -2700,9 +2700,9 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
@@ -3105,51 +3105,51 @@
       <c r="G54" s="19"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3169,8 +3169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E731D6A-1AF2-42E7-AE13-0257C1BC47F0}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3224,24 +3224,24 @@
       <c r="N5" s="4"/>
     </row>
     <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
-      <c r="J6" s="29" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
+      <c r="J6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="31"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
@@ -3251,9 +3251,9 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
@@ -3263,9 +3263,9 @@
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
@@ -3275,9 +3275,9 @@
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
@@ -3287,9 +3287,9 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
@@ -3634,39 +3634,41 @@
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E46" s="13"/>
-      <c r="G46" s="14">
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G47" s="14">
         <f>SUM(G16:G45)</f>
         <v>-28</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G48" s="14"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="1" t="s">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G49" s="14"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="1" t="s">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="15">
+      <c r="C54" s="15">
         <v>28</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D54" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E53" s="17" t="s">
+      <c r="E54" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F53" s="18" t="s">
+      <c r="F54" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G53" s="19"/>
+      <c r="G54" s="19"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="24"/>
@@ -3678,51 +3680,51 @@
       <c r="H57" s="24"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3742,8 +3744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECCE4023-35E9-4427-A2E3-62E45B00EDF5}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58:H62"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3797,24 +3799,24 @@
       <c r="N5" s="4"/>
     </row>
     <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
-      <c r="J6" s="29" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
+      <c r="J6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="31"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
@@ -3824,9 +3826,9 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
@@ -3836,9 +3838,9 @@
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
@@ -3848,9 +3850,9 @@
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
@@ -3860,9 +3862,9 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
@@ -4236,10 +4238,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G49" s="14" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G49" s="14"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
@@ -4270,51 +4269,51 @@
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4389,24 +4388,24 @@
       <c r="N5" s="4"/>
     </row>
     <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
-      <c r="J6" s="29" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
+      <c r="J6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="31"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
@@ -4416,9 +4415,9 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
@@ -4428,9 +4427,9 @@
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
@@ -4440,9 +4439,9 @@
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
@@ -4452,9 +4451,9 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
@@ -4851,51 +4850,51 @@
       <c r="G54" s="19"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4970,24 +4969,24 @@
       <c r="N5" s="4"/>
     </row>
     <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
-      <c r="J6" s="29" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
+      <c r="J6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="31"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
@@ -4997,9 +4996,9 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
@@ -5009,9 +5008,9 @@
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
@@ -5021,9 +5020,9 @@
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
@@ -5033,9 +5032,9 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
@@ -5438,51 +5437,51 @@
       <c r="G54" s="19"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5542,24 +5541,24 @@
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
-      <c r="J6" s="29" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
+      <c r="J6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="31"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
@@ -5569,9 +5568,9 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
@@ -5581,9 +5580,9 @@
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
@@ -5593,9 +5592,9 @@
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
@@ -5605,9 +5604,9 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F12" s="19"/>
@@ -6004,51 +6003,51 @@
       <c r="G54" s="19"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6109,24 +6108,24 @@
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
-      <c r="J6" s="29" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
+      <c r="J6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="31"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
@@ -6136,9 +6135,9 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
@@ -6148,9 +6147,9 @@
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
@@ -6160,9 +6159,9 @@
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
@@ -6172,9 +6171,9 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
@@ -6577,51 +6576,51 @@
       <c r="G54" s="19"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6681,24 +6680,24 @@
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
-      <c r="J6" s="29" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
+      <c r="J6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="31"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
@@ -6708,9 +6707,9 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
@@ -6720,9 +6719,9 @@
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
@@ -6732,9 +6731,9 @@
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
@@ -6744,9 +6743,9 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
@@ -7149,51 +7148,51 @@
       <c r="G54" s="19"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7253,24 +7252,24 @@
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
-      <c r="J6" s="29" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
+      <c r="J6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="31"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
@@ -7280,9 +7279,9 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
@@ -7292,9 +7291,9 @@
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
@@ -7304,9 +7303,9 @@
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
@@ -7316,9 +7315,9 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
@@ -7710,51 +7709,51 @@
       <c r="G54" s="19"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
